--- a/Table/Table_xls/PVP/j竞技场匹配表.xlsx
+++ b/Table/Table_xls/PVP/j竞技场匹配表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,250 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+DT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+化生寺</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+狮驼岭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+WDD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+狮驼岭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+神木林</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+WDD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+狮驼岭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+化生寺</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+LG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+DT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+狮驼岭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+神木林</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -132,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>id</t>
   </si>
@@ -171,6 +415,33 @@
   </si>
   <si>
     <t>飞燕女</t>
+  </si>
+  <si>
+    <t>舞天姬</t>
+  </si>
+  <si>
+    <t>桃夭夭</t>
+  </si>
+  <si>
+    <t>狐美人</t>
+  </si>
+  <si>
+    <t>杀破狼</t>
+  </si>
+  <si>
+    <t>偃无师</t>
+  </si>
+  <si>
+    <t>羽灵神</t>
+  </si>
+  <si>
+    <t>巫蛮儿</t>
+  </si>
+  <si>
+    <t>鬼潇潇</t>
+  </si>
+  <si>
+    <t>英女侠</t>
   </si>
   <si>
     <t>ID</t>
@@ -640,12 +911,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -676,11 +947,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1" tint="0.05"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -695,6 +961,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -707,44 +1011,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,15 +1027,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,9 +1043,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,19 +1057,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,16 +1101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,7 +1114,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,6 +1159,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -911,37 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,13 +1213,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,121 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,10 +1377,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1138,51 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1191,65 +1474,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1258,101 +1530,101 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1394,20 +1666,47 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1799,21 +2098,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:D10"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="10"/>
     <col min="2" max="2" width="8.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="10" customWidth="1"/>
     <col min="4" max="16383" width="7.5" style="10"/>
   </cols>
   <sheetData>
@@ -1841,7 +2140,7 @@
       <c r="C2" s="15">
         <v>30329</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="16">
         <v>11</v>
       </c>
     </row>
@@ -1855,8 +2154,8 @@
       <c r="C3" s="15">
         <v>30331</v>
       </c>
-      <c r="D3" s="11">
-        <v>12</v>
+      <c r="D3" s="17">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1869,7 +2168,7 @@
       <c r="C4" s="15">
         <v>30330</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="17">
         <v>13</v>
       </c>
     </row>
@@ -1883,8 +2182,8 @@
       <c r="C5" s="15">
         <v>30328</v>
       </c>
-      <c r="D5" s="11">
-        <v>14</v>
+      <c r="D5" s="17">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1897,7 +2196,7 @@
       <c r="C6" s="15">
         <v>30327</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="18">
         <v>15</v>
       </c>
     </row>
@@ -1911,62 +2210,183 @@
       <c r="C7" s="15">
         <v>30326</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21">
+        <v>67</v>
+      </c>
+      <c r="D8" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21">
+        <v>66</v>
+      </c>
+      <c r="D9" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21">
+        <v>65</v>
+      </c>
+      <c r="D10" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="24">
+        <v>40254</v>
+      </c>
+      <c r="D11" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="27">
+        <v>40253</v>
+      </c>
+      <c r="D12" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="27">
+        <v>40278</v>
+      </c>
+      <c r="D13" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="16">
-        <v>7</v>
+      <c r="C14" s="27">
+        <v>40251</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>10</v>
+      <c r="D14" s="25">
+        <v>13</v>
       </c>
-      <c r="C8" s="18">
-        <v>67</v>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="19">
+        <v>14</v>
       </c>
-      <c r="D8" s="11">
+      <c r="B15" s="26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="16">
-        <v>8</v>
+      <c r="C15" s="27">
+        <v>40279</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="D15" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="27">
+        <v>40267</v>
+      </c>
+      <c r="D16" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="27">
+        <v>40276</v>
+      </c>
+      <c r="D17" s="28">
         <v>11</v>
       </c>
-      <c r="C9" s="18">
-        <v>66</v>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="19">
+        <v>17</v>
       </c>
-      <c r="D9" s="11">
+      <c r="B18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="27">
+        <v>40255</v>
+      </c>
+      <c r="D18" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="16">
-        <v>9</v>
+      <c r="B19" s="26" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>12</v>
+      <c r="C19" s="27">
+        <v>40261</v>
       </c>
-      <c r="C10" s="18">
-        <v>65</v>
+      <c r="D19" s="25">
+        <v>24</v>
       </c>
-      <c r="D10" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1979,7 +2399,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -1988,623 +2408,623 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -51542,7 +51962,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
